--- a/team_specific_matrix/Tennessee Tech_A.xlsx
+++ b/team_specific_matrix/Tennessee Tech_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1946902654867257</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
-        <v>0.588495575221239</v>
+        <v>0.5811320754716981</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.003773584905660377</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1460176991150443</v>
+        <v>0.1471698113207547</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07079646017699115</v>
+        <v>0.06792452830188679</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007194244604316547</v>
+        <v>0.00625</v>
       </c>
       <c r="C3">
-        <v>0.03597122302158273</v>
+        <v>0.03125</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7482014388489209</v>
+        <v>0.74375</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2086330935251799</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5813953488372093</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4186046511627907</v>
+        <v>0.4313725490196079</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04972375690607735</v>
+        <v>0.04205607476635514</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01657458563535912</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04972375690607735</v>
+        <v>0.04205607476635514</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2320441988950276</v>
+        <v>0.2616822429906542</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01657458563535912</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1712707182320442</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="R6">
-        <v>0.04419889502762431</v>
+        <v>0.04672897196261682</v>
       </c>
       <c r="S6">
-        <v>0.4198895027624309</v>
+        <v>0.4158878504672897</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09243697478991597</v>
+        <v>0.09395973154362416</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01680672268907563</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04201680672268908</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07563025210084033</v>
+        <v>0.0738255033557047</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01680672268907563</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2016806722689076</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="R7">
-        <v>0.06722689075630252</v>
+        <v>0.06711409395973154</v>
       </c>
       <c r="S7">
-        <v>0.4873949579831933</v>
+        <v>0.4496644295302014</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1023809523809524</v>
+        <v>0.09864603481624758</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02619047619047619</v>
+        <v>0.03094777562862669</v>
       </c>
       <c r="E8">
-        <v>0.004761904761904762</v>
+        <v>0.003868471953578337</v>
       </c>
       <c r="F8">
-        <v>0.06428571428571428</v>
+        <v>0.06189555125725339</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06904761904761905</v>
+        <v>0.0735009671179884</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02619047619047619</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2023809523809524</v>
+        <v>0.1992263056092843</v>
       </c>
       <c r="R8">
-        <v>0.0761904761904762</v>
+        <v>0.07156673114119923</v>
       </c>
       <c r="S8">
-        <v>0.4285714285714285</v>
+        <v>0.4390715667311412</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09523809523809523</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02380952380952381</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07738095238095238</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04761904761904762</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02976190476190476</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1607142857142857</v>
+        <v>0.1952380952380952</v>
       </c>
       <c r="R9">
-        <v>0.08333333333333333</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="S9">
-        <v>0.4821428571428572</v>
+        <v>0.4428571428571428</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1101417666303162</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02617230098146129</v>
+        <v>0.02497769848349688</v>
       </c>
       <c r="E10">
-        <v>0.00109051254089422</v>
+        <v>0.0008920606601248885</v>
       </c>
       <c r="F10">
-        <v>0.07415485278080698</v>
+        <v>0.07136485280999108</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0806979280261723</v>
+        <v>0.07760927743086529</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01308615049073064</v>
+        <v>0.01427297056199822</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2181025081788441</v>
+        <v>0.215878679750223</v>
       </c>
       <c r="R10">
-        <v>0.07742639040348964</v>
+        <v>0.07760927743086529</v>
       </c>
       <c r="S10">
-        <v>0.3991275899672846</v>
+        <v>0.4121320249776985</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1363636363636364</v>
+        <v>0.1374407582938389</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07954545454545454</v>
+        <v>0.06635071090047394</v>
       </c>
       <c r="K11">
-        <v>0.1704545454545454</v>
+        <v>0.1658767772511848</v>
       </c>
       <c r="L11">
-        <v>0.6022727272727273</v>
+        <v>0.6161137440758294</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01136363636363636</v>
+        <v>0.01421800947867299</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8018018018018018</v>
+        <v>0.8</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1171171171171171</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="K12">
-        <v>0.01801801801801802</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="L12">
-        <v>0.03603603603603604</v>
+        <v>0.02962962962962963</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02702702702702703</v>
+        <v>0.02222222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5882352941176471</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4117647058823529</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01764705882352941</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1529411764705882</v>
+        <v>0.1611374407582938</v>
       </c>
       <c r="I15">
-        <v>0.1</v>
+        <v>0.0995260663507109</v>
       </c>
       <c r="J15">
-        <v>0.3235294117647059</v>
+        <v>0.3080568720379147</v>
       </c>
       <c r="K15">
-        <v>0.07058823529411765</v>
+        <v>0.07109004739336493</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01176470588235294</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="N15">
-        <v>0.005882352941176471</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="O15">
-        <v>0.02352941176470588</v>
+        <v>0.02843601895734597</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2941176470588235</v>
+        <v>0.2985781990521327</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03184713375796178</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2229299363057325</v>
+        <v>0.2055555555555555</v>
       </c>
       <c r="I16">
-        <v>0.07006369426751592</v>
+        <v>0.07222222222222222</v>
       </c>
       <c r="J16">
-        <v>0.3949044585987261</v>
+        <v>0.4</v>
       </c>
       <c r="K16">
-        <v>0.08280254777070063</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01273885350318471</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07006369426751592</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1146496815286624</v>
+        <v>0.1222222222222222</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03561643835616438</v>
+        <v>0.03311258278145696</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1917808219178082</v>
+        <v>0.1832229580573951</v>
       </c>
       <c r="I17">
-        <v>0.1150684931506849</v>
+        <v>0.1059602649006623</v>
       </c>
       <c r="J17">
-        <v>0.3972602739726027</v>
+        <v>0.4216335540838852</v>
       </c>
       <c r="K17">
-        <v>0.07671232876712329</v>
+        <v>0.0772626931567329</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.005479452054794521</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05753424657534247</v>
+        <v>0.06181015452538632</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1205479452054795</v>
+        <v>0.1037527593818985</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01503759398496241</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1954887218045113</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="I18">
-        <v>0.1203007518796992</v>
+        <v>0.1172839506172839</v>
       </c>
       <c r="J18">
-        <v>0.4736842105263158</v>
+        <v>0.4506172839506173</v>
       </c>
       <c r="K18">
-        <v>0.03759398496240601</v>
+        <v>0.04320987654320987</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04511278195488722</v>
+        <v>0.06790123456790123</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.112781954887218</v>
+        <v>0.1234567901234568</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01225259189443921</v>
+        <v>0.01387818041634541</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2525918944392083</v>
+        <v>0.2613723978411719</v>
       </c>
       <c r="I19">
-        <v>0.07822808671065033</v>
+        <v>0.08558211256746338</v>
       </c>
       <c r="J19">
-        <v>0.3864278982092366</v>
+        <v>0.3770239013107171</v>
       </c>
       <c r="K19">
-        <v>0.08011310084825636</v>
+        <v>0.07710100231303008</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01036757775683318</v>
+        <v>0.01079414032382421</v>
       </c>
       <c r="N19">
-        <v>0.000942507068803016</v>
+        <v>0.0007710100231303007</v>
       </c>
       <c r="O19">
-        <v>0.06974552309142319</v>
+        <v>0.06784888203546646</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1093308199811499</v>
+        <v>0.1056283731688512</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Tennessee Tech_A.xlsx
+++ b/team_specific_matrix/Tennessee Tech_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="C2">
-        <v>0.5811320754716981</v>
+        <v>0.5659722222222222</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.003773584905660377</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1471698113207547</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06792452830188679</v>
+        <v>0.0798611111111111</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00625</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="C3">
-        <v>0.03125</v>
+        <v>0.02958579881656805</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.74375</v>
+        <v>0.7455621301775148</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.21875</v>
+        <v>0.2189349112426036</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5686274509803921</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4313725490196079</v>
+        <v>0.4259259259259259</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04205607476635514</v>
+        <v>0.04273504273504274</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01401869158878505</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04205607476635514</v>
+        <v>0.04700854700854701</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2616822429906542</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01401869158878505</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1635514018691589</v>
+        <v>0.1623931623931624</v>
       </c>
       <c r="R6">
-        <v>0.04672897196261682</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="S6">
-        <v>0.4158878504672897</v>
+        <v>0.405982905982906</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09395973154362416</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01342281879194631</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04026845637583892</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0738255033557047</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02684563758389262</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2348993288590604</v>
+        <v>0.2176470588235294</v>
       </c>
       <c r="R7">
-        <v>0.06711409395973154</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="S7">
-        <v>0.4496644295302014</v>
+        <v>0.4588235294117647</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09864603481624758</v>
+        <v>0.09330985915492958</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03094777562862669</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="E8">
-        <v>0.003868471953578337</v>
+        <v>0.00352112676056338</v>
       </c>
       <c r="F8">
-        <v>0.06189555125725339</v>
+        <v>0.06514084507042253</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0735009671179884</v>
+        <v>0.07570422535211267</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02127659574468085</v>
+        <v>0.02112676056338028</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1992263056092843</v>
+        <v>0.1901408450704225</v>
       </c>
       <c r="R8">
-        <v>0.07156673114119923</v>
+        <v>0.07570422535211267</v>
       </c>
       <c r="S8">
-        <v>0.4390715667311412</v>
+        <v>0.4471830985915493</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08571428571428572</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01904761904761905</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06666666666666667</v>
+        <v>0.0603448275862069</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07142857142857142</v>
+        <v>0.07327586206896551</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03333333333333333</v>
+        <v>0.03017241379310345</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1952380952380952</v>
+        <v>0.2025862068965517</v>
       </c>
       <c r="R9">
-        <v>0.08571428571428572</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="S9">
-        <v>0.4428571428571428</v>
+        <v>0.4439655172413793</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1052631578947368</v>
+        <v>0.1018444266238974</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02497769848349688</v>
+        <v>0.02405773857257418</v>
       </c>
       <c r="E10">
-        <v>0.0008920606601248885</v>
+        <v>0.0008019246190858059</v>
       </c>
       <c r="F10">
-        <v>0.07136485280999108</v>
+        <v>0.07056936647955092</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07760927743086529</v>
+        <v>0.07698476343223737</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01427297056199822</v>
+        <v>0.0136327185244587</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.215878679750223</v>
+        <v>0.210906174819567</v>
       </c>
       <c r="R10">
-        <v>0.07760927743086529</v>
+        <v>0.08259823576583801</v>
       </c>
       <c r="S10">
-        <v>0.4121320249776985</v>
+        <v>0.4186046511627907</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1374407582938389</v>
+        <v>0.1324786324786325</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06635071090047394</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="K11">
-        <v>0.1658767772511848</v>
+        <v>0.1581196581196581</v>
       </c>
       <c r="L11">
-        <v>0.6161137440758294</v>
+        <v>0.6324786324786325</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01421800947867299</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8</v>
+        <v>0.7987012987012987</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1333333333333333</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="K12">
-        <v>0.01481481481481482</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="L12">
-        <v>0.02962962962962963</v>
+        <v>0.03246753246753246</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02222222222222222</v>
+        <v>0.01948051948051948</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6153846153846154</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3461538461538461</v>
+        <v>0.3</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03846153846153846</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01421800947867299</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1611374407582938</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="I15">
-        <v>0.0995260663507109</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="J15">
-        <v>0.3080568720379147</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="K15">
-        <v>0.07109004739336493</v>
+        <v>0.0735930735930736</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01421800947867299</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="N15">
-        <v>0.004739336492890996</v>
+        <v>0.004329004329004329</v>
       </c>
       <c r="O15">
-        <v>0.02843601895734597</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2985781990521327</v>
+        <v>0.2987012987012987</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03333333333333333</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2055555555555555</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="I16">
-        <v>0.07222222222222222</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="J16">
-        <v>0.4</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="K16">
-        <v>0.08333333333333333</v>
+        <v>0.08994708994708994</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01666666666666667</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06666666666666667</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1222222222222222</v>
+        <v>0.1164021164021164</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03311258278145696</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1832229580573951</v>
+        <v>0.1897959183673469</v>
       </c>
       <c r="I17">
-        <v>0.1059602649006623</v>
+        <v>0.1040816326530612</v>
       </c>
       <c r="J17">
-        <v>0.4216335540838852</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="K17">
-        <v>0.0772626931567329</v>
+        <v>0.07959183673469387</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01324503311258278</v>
+        <v>0.01224489795918367</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06181015452538632</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1037527593818985</v>
+        <v>0.1081632653061225</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01234567901234568</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1851851851851852</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="I18">
-        <v>0.1172839506172839</v>
+        <v>0.1164021164021164</v>
       </c>
       <c r="J18">
-        <v>0.4506172839506173</v>
+        <v>0.4656084656084656</v>
       </c>
       <c r="K18">
-        <v>0.04320987654320987</v>
+        <v>0.05291005291005291</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06790123456790123</v>
+        <v>0.0582010582010582</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1234567901234568</v>
+        <v>0.1216931216931217</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01387818041634541</v>
+        <v>0.01383125864453665</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2613723978411719</v>
+        <v>0.2593360995850623</v>
       </c>
       <c r="I19">
-        <v>0.08558211256746338</v>
+        <v>0.08506224066390042</v>
       </c>
       <c r="J19">
-        <v>0.3770239013107171</v>
+        <v>0.3775933609958506</v>
       </c>
       <c r="K19">
-        <v>0.07710100231303008</v>
+        <v>0.07607192254495158</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01079414032382421</v>
+        <v>0.01313969571230982</v>
       </c>
       <c r="N19">
-        <v>0.0007710100231303007</v>
+        <v>0.0006915629322268327</v>
       </c>
       <c r="O19">
-        <v>0.06784888203546646</v>
+        <v>0.0698478561549101</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1056283731688512</v>
+        <v>0.1044260027662517</v>
       </c>
     </row>
   </sheetData>
